--- a/Jeu/TestEch.xlsx
+++ b/Jeu/TestEch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelf\Desktop\Codage\OPEN\GitHub\jeusecret\Jeu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08321E9D-0069-416E-B81E-162FD77140A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A146AA0-B19C-4FD7-B4A2-6EB16D602D2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6ECEF9EE-FB08-47A2-BD9C-3FF6B4ED3719}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="110">
   <si>
     <t>Question</t>
   </si>
@@ -50,37 +50,319 @@
     <t>RepD</t>
   </si>
   <si>
-    <t>La rep est</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Le res est</t>
-  </si>
-  <si>
-    <t>La ville est</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Lille</t>
+    <t>ValeurA</t>
+  </si>
+  <si>
+    <t>ValeurB</t>
+  </si>
+  <si>
+    <t>ValeurC</t>
+  </si>
+  <si>
+    <t>ValeurD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't stop me </t>
+  </si>
+  <si>
+    <t>baby</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>my love</t>
+  </si>
+  <si>
+    <t>Trahison, disgrâce. L'esprit du mal est marqué sur sa</t>
+  </si>
+  <si>
+    <t>tête</t>
+  </si>
+  <si>
+    <t>patte</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>moustache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ces mots signifient que tu vivras ta vie, </t>
+  </si>
+  <si>
+    <t>sans aucun ami</t>
+  </si>
+  <si>
+    <t>sans aucun bruit</t>
+  </si>
+  <si>
+    <t>sans parapluie</t>
+  </si>
+  <si>
+    <t>sans aucun souci</t>
+  </si>
+  <si>
+    <t>Ce rêve bleu C'est un nouveau monde en</t>
+  </si>
+  <si>
+    <t>couleur</t>
+  </si>
+  <si>
+    <t>sueur</t>
+  </si>
+  <si>
+    <t>cœur</t>
+  </si>
+  <si>
+    <t>chaleur</t>
+  </si>
+  <si>
+    <t>Somebody once told me the world is gonna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">watch </t>
+  </si>
+  <si>
+    <t>teach me</t>
+  </si>
+  <si>
+    <t>roll me</t>
+  </si>
+  <si>
+    <t>rise</t>
+  </si>
+  <si>
+    <t>Le lion est mort ce soir et les</t>
+  </si>
+  <si>
+    <t>hommes</t>
+  </si>
+  <si>
+    <t>hormones</t>
+  </si>
+  <si>
+    <t>ohm</t>
+  </si>
+  <si>
+    <t>homards</t>
+  </si>
+  <si>
+    <t>Cause all of me loves all of</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>him</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>her</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C'est l'histoire de la vie, le cycle éternel, qu'un enfant béni </t>
+  </si>
+  <si>
+    <t>boit l'hydromel</t>
+  </si>
+  <si>
+    <t>rend immortel</t>
+  </si>
+  <si>
+    <t>passe par Vittel</t>
+  </si>
+  <si>
+    <t>rend virtuel</t>
+  </si>
+  <si>
+    <t>Il faut se satisfaire du nécessaire Un peu d'eau fraiche et de</t>
+  </si>
+  <si>
+    <t>miel</t>
+  </si>
+  <si>
+    <t>verdure</t>
+  </si>
+  <si>
+    <t>Soleil</t>
+  </si>
+  <si>
+    <t>cactus</t>
+  </si>
+  <si>
+    <t>Quelques rayons de miel et de</t>
+  </si>
+  <si>
+    <t>fraicheur</t>
+  </si>
+  <si>
+    <t>Libérée, Délivrée Je ne mentirai</t>
+  </si>
+  <si>
+    <t>que le jeudi</t>
+  </si>
+  <si>
+    <t>qu'à toi</t>
+  </si>
+  <si>
+    <t>pas</t>
+  </si>
+  <si>
+    <t>plus jamais</t>
+  </si>
+  <si>
+    <t>Entend tu chanter les espris de la</t>
+  </si>
+  <si>
+    <t>montagne</t>
+  </si>
+  <si>
+    <t>rivière</t>
+  </si>
+  <si>
+    <t>forêt</t>
+  </si>
+  <si>
+    <t>mer</t>
+  </si>
+  <si>
+    <t>Yesterday, all my troubles seemed so</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>strange</t>
+  </si>
+  <si>
+    <t>unbelievable</t>
+  </si>
+  <si>
+    <t>far away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attaquons l'exercice pour défaire les </t>
+  </si>
+  <si>
+    <t>Huns</t>
+  </si>
+  <si>
+    <t>Uns</t>
+  </si>
+  <si>
+    <t>Ains</t>
+  </si>
+  <si>
+    <t>Heins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comme un homme Sois plus violent que le cours du </t>
+  </si>
+  <si>
+    <t>tyran</t>
+  </si>
+  <si>
+    <t>torrent</t>
+  </si>
+  <si>
+    <t>talisman</t>
+  </si>
+  <si>
+    <t>temps</t>
+  </si>
+  <si>
+    <t>Je suis le gardien Du sommeil de ses nuits Je l'aime</t>
+  </si>
+  <si>
+    <t>pour la vie</t>
+  </si>
+  <si>
+    <t>de tout mon cœur</t>
+  </si>
+  <si>
+    <t>à mourir</t>
+  </si>
+  <si>
+    <t>pour de vrai</t>
+  </si>
+  <si>
+    <t>Tiens bon la vague et tiens bon le</t>
+  </si>
+  <si>
+    <t>gouvernail</t>
+  </si>
+  <si>
+    <t>mât</t>
+  </si>
+  <si>
+    <t>vent</t>
+  </si>
+  <si>
+    <t>Hisse et ho,</t>
+  </si>
+  <si>
+    <t>sales pianos</t>
+  </si>
+  <si>
+    <t>mille sabords</t>
+  </si>
+  <si>
+    <t>matelots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santiano </t>
+  </si>
+  <si>
+    <t>Don't stop me now I'm having such a good time I'm having a</t>
+  </si>
+  <si>
+    <t>ball</t>
+  </si>
+  <si>
+    <t>pillow</t>
+  </si>
+  <si>
+    <t>sleeping time</t>
+  </si>
+  <si>
+    <t>bath</t>
+  </si>
+  <si>
+    <t>C'est moi Simba C'est moi le</t>
+  </si>
+  <si>
+    <t>roi</t>
+  </si>
+  <si>
+    <t>chat</t>
+  </si>
+  <si>
+    <t>swag</t>
+  </si>
+  <si>
+    <t>panda</t>
+  </si>
+  <si>
+    <t>Si Dieu veut, toujours droit devant Nous irons jusqu'à</t>
+  </si>
+  <si>
+    <t>la place Bellecour</t>
+  </si>
+  <si>
+    <t>San Fancisco</t>
+  </si>
+  <si>
+    <t>sans Francis ho</t>
+  </si>
+  <si>
+    <t>Marco Polo</t>
   </si>
 </sst>
 </file>
@@ -432,15 +714,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5DE26D-9C7D-464E-BD3D-7A62574D9084}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,56 +738,626 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
